--- a/1ª Avaliação (AV1) Programação Python 2022.1(1-10).xlsx
+++ b/1ª Avaliação (AV1) Programação Python 2022.1(1-10).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\helen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YduqsArea1\14 WydenArea1Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A8DDA3-97B1-4F28-ABE4-2484EE8D9B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D7D6C4-5CED-48D7-8330-F6A9F0C3F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>ID</t>
   </si>
@@ -39,13 +39,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Nome</t>
-  </si>
-  <si>
     <t>Total de pontos</t>
-  </si>
-  <si>
-    <t>Comentários do teste</t>
   </si>
   <si>
     <t>Hora de postagem da nota</t>
@@ -1257,6 +1251,18 @@
   <si>
     <t>Iure</t>
   </si>
+  <si>
+    <t>AV2</t>
+  </si>
+  <si>
+    <t>65; App CRUD=2</t>
+  </si>
+  <si>
+    <t>2; App CRUD=2</t>
+  </si>
+  <si>
+    <t>Nova Chance</t>
+  </si>
 </sst>
 </file>
 
@@ -1274,7 +1280,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,6 +1290,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,13 +1318,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1420,9 +1441,9 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de conclusão" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Nome" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AV2" dataDxfId="24"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total de pontos" dataDxfId="23"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Comentários do teste" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nova Chance" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Hora de postagem da nota" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nome do Aluno" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Pontos – Nome do Aluno" dataDxfId="19"/>
@@ -1750,7 +1771,7 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,79 +1793,79 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1858,10 +1879,10 @@
         <v>44681.593182870398</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2">
+        <v>27</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="6">
         <v>3</v>
       </c>
       <c r="G2" s="4">
@@ -1871,43 +1892,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2">
@@ -1925,9 +1946,11 @@
         <v>44681.723379629599</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E3" s="5">
+        <v>70</v>
+      </c>
       <c r="F3">
         <v>70</v>
       </c>
@@ -1936,43 +1959,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3">
         <v>20</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S3">
         <v>20</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3">
         <v>12</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3">
         <v>10</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3">
@@ -1990,9 +2013,9 @@
         <v>44681.7270601852</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="F4">
         <v>8</v>
       </c>
@@ -2001,43 +2024,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <v>8</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4">
@@ -2055,9 +2078,11 @@
         <v>44681.744085648097</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E5" s="5">
+        <v>100</v>
+      </c>
       <c r="F5">
         <v>100</v>
       </c>
@@ -2066,43 +2091,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S5">
         <v>20</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5">
         <v>20</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5">
         <v>20</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5">
@@ -2120,9 +2145,11 @@
         <v>44681.831770833298</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E6" s="4">
+        <v>65</v>
+      </c>
       <c r="F6">
         <v>100</v>
       </c>
@@ -2131,43 +2158,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P6">
         <v>20</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="S6">
         <v>20</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6">
         <v>20</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6">
         <v>20</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6">
@@ -2185,9 +2212,11 @@
         <v>44681.8374189815</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E7" s="4">
+        <v>65</v>
+      </c>
       <c r="F7">
         <v>100</v>
       </c>
@@ -2196,43 +2225,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P7">
         <v>20</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S7">
         <v>20</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7">
         <v>20</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7">
@@ -2250,10 +2279,12 @@
         <v>44681.854710648098</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="6">
         <v>7</v>
       </c>
       <c r="G8" s="4">
@@ -2263,40 +2294,40 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8">
         <v>2</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8">
@@ -2314,10 +2345,12 @@
         <v>44681.863240740699</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4">
+        <v>53</v>
+      </c>
+      <c r="F9" s="6">
         <v>30</v>
       </c>
       <c r="G9" s="4">
@@ -2327,43 +2360,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P9">
         <v>20</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9">
         <v>10</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9">
@@ -2381,9 +2414,9 @@
         <v>44681.895578703698</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10">
         <v>70</v>
       </c>
@@ -2392,43 +2425,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P10">
         <v>20</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="S10">
         <v>20</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10">
         <v>20</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10">
         <v>5</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10">
@@ -2446,9 +2479,9 @@
         <v>44681.901770833298</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11">
         <v>22</v>
       </c>
@@ -2459,43 +2492,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P11">
         <v>20</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11">
@@ -2513,10 +2546,12 @@
         <v>44681.9153703704</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="6">
         <v>39</v>
       </c>
       <c r="G12" s="4">
@@ -2526,43 +2561,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P12">
         <v>20</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S12">
         <v>19</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12">
@@ -2575,7 +2610,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="F13" s="7">
         <v>0</v>
       </c>
       <c r="G13" s="4">
@@ -2583,7 +2618,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>

--- a/1ª Avaliação (AV1) Programação Python 2022.1(1-10).xlsx
+++ b/1ª Avaliação (AV1) Programação Python 2022.1(1-10).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\YduqsArea1\14 WydenArea1Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D7D6C4-5CED-48D7-8330-F6A9F0C3F6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8863D76-8609-4160-B876-FAA6C3B3D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Email</t>
-  </si>
-  <si>
-    <t>Total de pontos</t>
   </si>
   <si>
     <t>Hora de postagem da nota</t>
@@ -1258,10 +1255,13 @@
     <t>65; App CRUD=2</t>
   </si>
   <si>
-    <t>2; App CRUD=2</t>
-  </si>
-  <si>
     <t>Nova Chance</t>
+  </si>
+  <si>
+    <t>AV1</t>
+  </si>
+  <si>
+    <t>2; App CRUD=2; AV3=CRUD (6)</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1442,7 @@
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hora de conclusão" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email" dataDxfId="25"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="AV2" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Total de pontos" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="AV1" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nova Chance" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Hora de postagem da nota" dataDxfId="21"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Nome do Aluno" dataDxfId="20"/>
@@ -1771,12 +1771,14 @@
   <dimension ref="A1:AC13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="29" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="29" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -1793,79 +1795,79 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1879,7 +1881,7 @@
         <v>44681.593182870398</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="6">
@@ -1892,43 +1894,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2">
         <v>1</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="4"/>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2">
@@ -1946,7 +1948,7 @@
         <v>44681.723379629599</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5">
         <v>70</v>
@@ -1959,43 +1961,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3">
         <v>20</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3">
         <v>20</v>
       </c>
       <c r="T3" s="4"/>
       <c r="U3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3">
         <v>12</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3">
         <v>10</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3">
@@ -2013,7 +2015,7 @@
         <v>44681.7270601852</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4">
@@ -2024,43 +2026,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P4">
         <v>8</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" s="4"/>
       <c r="U4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4">
@@ -2078,7 +2080,7 @@
         <v>44681.744085648097</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="5">
         <v>100</v>
@@ -2091,43 +2093,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5">
         <v>20</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S5">
         <v>20</v>
       </c>
       <c r="T5" s="4"/>
       <c r="U5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5">
         <v>20</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5">
         <v>20</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5">
@@ -2145,7 +2147,7 @@
         <v>44681.831770833298</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4">
         <v>65</v>
@@ -2158,43 +2160,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P6">
         <v>20</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S6">
         <v>20</v>
       </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6">
         <v>20</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6">
         <v>20</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6">
@@ -2212,7 +2214,7 @@
         <v>44681.8374189815</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4">
         <v>65</v>
@@ -2225,43 +2227,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7">
         <v>20</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7">
         <v>20</v>
       </c>
       <c r="T7" s="4"/>
       <c r="U7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7">
         <v>20</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7">
         <v>20</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7">
@@ -2279,10 +2281,10 @@
         <v>44681.854710648098</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6">
         <v>7</v>
@@ -2294,40 +2296,40 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S8">
         <v>1</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8">
         <v>3</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8">
         <v>2</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8">
@@ -2345,7 +2347,7 @@
         <v>44681.863240740699</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>53</v>
@@ -2360,43 +2362,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P9">
         <v>20</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" s="4"/>
       <c r="U9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9">
         <v>10</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9">
@@ -2414,7 +2416,7 @@
         <v>44681.895578703698</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10">
@@ -2425,43 +2427,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10">
         <v>20</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10">
         <v>20</v>
       </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10">
         <v>20</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10">
         <v>5</v>
       </c>
       <c r="AA10" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10">
@@ -2479,7 +2481,7 @@
         <v>44681.901770833298</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11">
@@ -2492,43 +2494,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P11">
         <v>20</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11" s="4"/>
       <c r="U11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11">
         <v>2</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11">
@@ -2546,10 +2548,10 @@
         <v>44681.9153703704</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="6">
         <v>39</v>
@@ -2561,43 +2563,43 @@
         <v>44688.637002314797</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12">
         <v>20</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S12">
         <v>19</v>
       </c>
       <c r="T12" s="4"/>
       <c r="U12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12">
@@ -2609,7 +2611,9 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
       <c r="F13" s="7">
         <v>0</v>
       </c>
@@ -2618,7 +2622,7 @@
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
